--- a/Proyecto03_0.1/backend/destiny.xlsx
+++ b/Proyecto03_0.1/backend/destiny.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="14370"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="28800" windowHeight="14370" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="destiny" sheetId="3" r:id="rId1"/>
+    <sheet name="map" sheetId="4" r:id="rId1"/>
+    <sheet name="destiny" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,12 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>63|560</t>
-  </si>
-  <si>
-    <t>64|632</t>
-  </si>
   <si>
     <t>8|160</t>
   </si>
@@ -53,9 +48,6 @@
     <t>67|492</t>
   </si>
   <si>
-    <t>88|364</t>
-  </si>
-  <si>
     <t>96|342</t>
   </si>
   <si>
@@ -69,15 +61,6 @@
   </si>
   <si>
     <t>135|456</t>
-  </si>
-  <si>
-    <t>147|523</t>
-  </si>
-  <si>
-    <t>143|524</t>
-  </si>
-  <si>
-    <t>144|596</t>
   </si>
   <si>
     <t>193|462</t>
@@ -154,6 +137,24 @@
   <si>
     <t>167|450</t>
   </si>
+  <si>
+    <t>147|508</t>
+  </si>
+  <si>
+    <t>88|394</t>
+  </si>
+  <si>
+    <t>143|509</t>
+  </si>
+  <si>
+    <t>63|545</t>
+  </si>
+  <si>
+    <t>64|618</t>
+  </si>
+  <si>
+    <t>144|581</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -200,13 +207,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +498,4291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BB16" sqref="BB16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="62" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f>H1+1</f>
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <f t="shared" ref="J1:BC1" si="0">I1+1</f>
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="X1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Y1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Z1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AA1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AM1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AN1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AO1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AP1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AQ1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AR1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AS1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AT1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AU1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AV1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AW1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AX1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AY1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AZ1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="BA1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="BB1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="BC1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+    </row>
+    <row r="2" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2">
+        <f t="shared" ref="H2:H13" si="1">H3+1</f>
+        <v>159</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="1"/>
+      <c r="O2">
+        <f>H2+1</f>
+        <v>160</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P12" si="2">P3+1</f>
+        <v>211</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="1"/>
+      <c r="W2">
+        <f>P2+1</f>
+        <v>212</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:X12" si="3">X3+1</f>
+        <v>263</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2">
+        <f>X2+1</f>
+        <v>264</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AF12" si="4">AF3+1</f>
+        <v>315</v>
+      </c>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2">
+        <f>AF2+1</f>
+        <v>316</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" ref="AN2:AN12" si="5">AN3+1</f>
+        <v>367</v>
+      </c>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2">
+        <f>AN2+1</f>
+        <v>368</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" ref="AV2:AV12" si="6">AV3+1</f>
+        <v>419</v>
+      </c>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2">
+        <f>BC1+1</f>
+        <v>48</v>
+      </c>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+    </row>
+    <row r="3" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3">
+        <f>O2+1</f>
+        <v>161</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+      <c r="W3">
+        <f>W2+1</f>
+        <v>213</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="3"/>
+        <v>262</v>
+      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3">
+        <f>AE2+1</f>
+        <v>265</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3">
+        <f>AM2+1</f>
+        <v>317</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="5"/>
+        <v>366</v>
+      </c>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3">
+        <f>AU2+1</f>
+        <v>369</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="6"/>
+        <v>418</v>
+      </c>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3">
+        <f t="shared" ref="BC3:BC34" si="7">BC2+1</f>
+        <v>49</v>
+      </c>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+    </row>
+    <row r="4" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4">
+        <f t="shared" ref="O4:O14" si="8">O3+1</f>
+        <v>162</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4">
+        <f t="shared" ref="W4:W14" si="9">W3+1</f>
+        <v>214</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="3"/>
+        <v>261</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE14" si="10">AE3+1</f>
+        <v>266</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4">
+        <f t="shared" ref="AM4:AM14" si="11">AM3+1</f>
+        <v>318</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4">
+        <f t="shared" ref="AU4:AU14" si="12">AU3+1</f>
+        <v>370</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="6"/>
+        <v>417</v>
+      </c>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+    </row>
+    <row r="5" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5">
+        <f t="shared" si="8"/>
+        <v>163</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5">
+        <f t="shared" si="9"/>
+        <v>215</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5">
+        <f t="shared" si="10"/>
+        <v>267</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5">
+        <f t="shared" si="11"/>
+        <v>319</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="5"/>
+        <v>364</v>
+      </c>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5">
+        <f t="shared" si="12"/>
+        <v>371</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="6"/>
+        <v>416</v>
+      </c>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+    </row>
+    <row r="6" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>207</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="2"/>
+      <c r="W6">
+        <f t="shared" si="9"/>
+        <v>216</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>259</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6">
+        <f t="shared" si="10"/>
+        <v>268</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6">
+        <f t="shared" si="11"/>
+        <v>320</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6">
+        <f t="shared" si="12"/>
+        <v>372</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="6"/>
+        <v>415</v>
+      </c>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+    </row>
+    <row r="7" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7">
+        <f t="shared" si="8"/>
+        <v>165</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="1"/>
+      <c r="W7">
+        <f t="shared" si="9"/>
+        <v>217</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>258</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7">
+        <f t="shared" si="10"/>
+        <v>269</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7">
+        <f t="shared" si="11"/>
+        <v>321</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="5"/>
+        <v>362</v>
+      </c>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7">
+        <f t="shared" si="12"/>
+        <v>373</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="6"/>
+        <v>414</v>
+      </c>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+    </row>
+    <row r="8" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:M8" si="13">J8+1</f>
+        <v>455</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="13"/>
+        <v>454</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="13"/>
+        <v>453</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="13"/>
+        <v>452</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="13"/>
+        <v>451</v>
+      </c>
+      <c r="N8">
+        <f>Q8+1</f>
+        <v>450</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>166</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="Q8">
+        <f>R8+1</f>
+        <v>449</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:U8" si="14">S8+1</f>
+        <v>448</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="14"/>
+        <v>447</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="14"/>
+        <v>446</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="14"/>
+        <v>445</v>
+      </c>
+      <c r="V8">
+        <f>Y8+1</f>
+        <v>444</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="9"/>
+        <v>218</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ref="Y8:AC8" si="15">Z8+1</f>
+        <v>443</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="15"/>
+        <v>442</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="15"/>
+        <v>441</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="15"/>
+        <v>440</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="15"/>
+        <v>439</v>
+      </c>
+      <c r="AD8">
+        <f>AG8+1</f>
+        <v>438</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="4"/>
+        <v>309</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" ref="AG8:AK8" si="16">AH8+1</f>
+        <v>437</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="16"/>
+        <v>436</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="16"/>
+        <v>435</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="16"/>
+        <v>434</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="16"/>
+        <v>433</v>
+      </c>
+      <c r="AL8">
+        <f>AO8+1</f>
+        <v>432</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="11"/>
+        <v>322</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" ref="AO8:AS8" si="17">AP8+1</f>
+        <v>431</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="17"/>
+        <v>430</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="17"/>
+        <v>429</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="17"/>
+        <v>428</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="17"/>
+        <v>427</v>
+      </c>
+      <c r="AT8">
+        <f>AW8+1</f>
+        <v>426</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="12"/>
+        <v>374</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="6"/>
+        <v>413</v>
+      </c>
+      <c r="AW8" s="4">
+        <f t="shared" ref="AW8:AZ8" si="18">AX8+1</f>
+        <v>425</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="18"/>
+        <v>424</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="18"/>
+        <v>423</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="18"/>
+        <v>422</v>
+      </c>
+      <c r="BA8">
+        <f>BB8+1</f>
+        <v>421</v>
+      </c>
+      <c r="BB8">
+        <f>AV2+1</f>
+        <v>420</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+    </row>
+    <row r="9" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="1"/>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>167</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="1"/>
+      <c r="W9">
+        <f t="shared" si="9"/>
+        <v>219</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9">
+        <f t="shared" si="10"/>
+        <v>271</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9">
+        <f t="shared" si="11"/>
+        <v>323</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9">
+        <f t="shared" si="12"/>
+        <v>375</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="6"/>
+        <v>412</v>
+      </c>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+    </row>
+    <row r="10" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2"/>
+      <c r="O10">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="2"/>
+      <c r="W10">
+        <f t="shared" si="9"/>
+        <v>220</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10">
+        <f t="shared" si="10"/>
+        <v>272</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10">
+        <f t="shared" si="11"/>
+        <v>324</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10">
+        <f t="shared" si="12"/>
+        <v>376</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="6"/>
+        <v>411</v>
+      </c>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+    </row>
+    <row r="11" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11">
+        <f t="shared" si="8"/>
+        <v>169</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>202</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11">
+        <f t="shared" si="9"/>
+        <v>221</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11">
+        <f t="shared" si="10"/>
+        <v>273</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11">
+        <f t="shared" si="11"/>
+        <v>325</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11">
+        <f t="shared" si="12"/>
+        <v>377</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="6"/>
+        <v>410</v>
+      </c>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+    </row>
+    <row r="12" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12">
+        <f t="shared" si="8"/>
+        <v>170</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12">
+        <f t="shared" si="9"/>
+        <v>222</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12">
+        <f t="shared" si="10"/>
+        <v>274</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12">
+        <f t="shared" si="11"/>
+        <v>326</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12">
+        <f t="shared" si="12"/>
+        <v>378</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="6"/>
+        <v>409</v>
+      </c>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+    </row>
+    <row r="13" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+      <c r="P13">
+        <f>P14+1</f>
+        <v>200</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="2"/>
+      <c r="W13">
+        <f t="shared" si="9"/>
+        <v>223</v>
+      </c>
+      <c r="X13">
+        <f>X14+1</f>
+        <v>252</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13">
+        <f t="shared" si="10"/>
+        <v>275</v>
+      </c>
+      <c r="AF13">
+        <f>AF14+1</f>
+        <v>304</v>
+      </c>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13">
+        <f t="shared" si="11"/>
+        <v>327</v>
+      </c>
+      <c r="AN13">
+        <f>AN14+1</f>
+        <v>356</v>
+      </c>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13">
+        <f t="shared" si="12"/>
+        <v>379</v>
+      </c>
+      <c r="AV13">
+        <f>AV14+1</f>
+        <v>408</v>
+      </c>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+    </row>
+    <row r="14" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14">
+        <f>H15+1</f>
+        <v>147</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14">
+        <f t="shared" si="8"/>
+        <v>172</v>
+      </c>
+      <c r="P14">
+        <f>P21+1</f>
+        <v>199</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14">
+        <f t="shared" si="9"/>
+        <v>224</v>
+      </c>
+      <c r="X14">
+        <f>X21+1</f>
+        <v>251</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14">
+        <f t="shared" si="10"/>
+        <v>276</v>
+      </c>
+      <c r="AF14">
+        <f>AF21+1</f>
+        <v>303</v>
+      </c>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14">
+        <f t="shared" si="11"/>
+        <v>328</v>
+      </c>
+      <c r="AN14">
+        <f>AN21+1</f>
+        <v>355</v>
+      </c>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14">
+        <f t="shared" si="12"/>
+        <v>380</v>
+      </c>
+      <c r="AV14">
+        <f>AV21+1</f>
+        <v>407</v>
+      </c>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+    </row>
+    <row r="15" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f t="shared" ref="B15:E15" si="19">C15+1</f>
+        <v>513</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="19"/>
+        <v>512</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="19"/>
+        <v>511</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="19"/>
+        <v>510</v>
+      </c>
+      <c r="F15">
+        <f>G15+1</f>
+        <v>509</v>
+      </c>
+      <c r="G15">
+        <f>BD15+1</f>
+        <v>508</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H32" si="20">H16+1</f>
+        <v>146</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="3">
+        <f>I17+1</f>
+        <v>653</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="3">
+        <f>O15+1</f>
+        <v>654</v>
+      </c>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="3">
+        <f>W15+1</f>
+        <v>655</v>
+      </c>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="3">
+        <f>AE15+1</f>
+        <v>656</v>
+      </c>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="3">
+        <f>AM15+1</f>
+        <v>657</v>
+      </c>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" ref="BD15:BG15" si="21">BE15+1</f>
+        <v>507</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="21"/>
+        <v>506</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="21"/>
+        <v>505</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="21"/>
+        <v>504</v>
+      </c>
+      <c r="BH15">
+        <f>BI15+1</f>
+        <v>503</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" ref="BI15:BI18" si="22">BI16+1</f>
+        <v>502</v>
+      </c>
+      <c r="BJ15" s="1"/>
+    </row>
+    <row r="16" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16">
+        <f>B15+1</f>
+        <v>514</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16">
+        <f t="shared" si="20"/>
+        <v>145</v>
+      </c>
+      <c r="I16">
+        <f>J16+1</f>
+        <v>580</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:M17" si="23">K16+1</f>
+        <v>579</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="23"/>
+        <v>578</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="23"/>
+        <v>577</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="23"/>
+        <v>576</v>
+      </c>
+      <c r="N16">
+        <f>Q16+1</f>
+        <v>575</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16">
+        <f t="shared" ref="Q16:U17" si="24">R16+1</f>
+        <v>574</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="24"/>
+        <v>573</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="24"/>
+        <v>572</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="24"/>
+        <v>571</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="24"/>
+        <v>570</v>
+      </c>
+      <c r="V16">
+        <f>Y16+1</f>
+        <v>569</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16">
+        <f t="shared" ref="Y16:AC17" si="25">Z16+1</f>
+        <v>568</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="25"/>
+        <v>567</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="25"/>
+        <v>566</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="25"/>
+        <v>565</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="25"/>
+        <v>564</v>
+      </c>
+      <c r="AD16">
+        <f>AG16+1</f>
+        <v>563</v>
+      </c>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16">
+        <f t="shared" ref="AG16:AK17" si="26">AH16+1</f>
+        <v>562</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="26"/>
+        <v>561</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="26"/>
+        <v>560</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="26"/>
+        <v>559</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="26"/>
+        <v>558</v>
+      </c>
+      <c r="AL16">
+        <f>AO16+1</f>
+        <v>557</v>
+      </c>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16">
+        <f t="shared" ref="AO16:AS17" si="27">AP16+1</f>
+        <v>556</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="27"/>
+        <v>555</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="27"/>
+        <v>554</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="27"/>
+        <v>553</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="27"/>
+        <v>552</v>
+      </c>
+      <c r="AT16">
+        <f>AW16+1</f>
+        <v>551</v>
+      </c>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16">
+        <f t="shared" ref="AW16:AZ17" si="28">AX16+1</f>
+        <v>550</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="28"/>
+        <v>549</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="28"/>
+        <v>548</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="28"/>
+        <v>547</v>
+      </c>
+      <c r="BA16">
+        <f>BB16+1</f>
+        <v>546</v>
+      </c>
+      <c r="BB16">
+        <f>BB19+1</f>
+        <v>545</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16">
+        <f t="shared" si="22"/>
+        <v>501</v>
+      </c>
+      <c r="BJ16" s="1"/>
+    </row>
+    <row r="17" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17">
+        <f t="shared" ref="B17:B20" si="29">B16+1</f>
+        <v>515</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17">
+        <f t="shared" si="20"/>
+        <v>144</v>
+      </c>
+      <c r="I17">
+        <f>J17+1</f>
+        <v>652</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="23"/>
+        <v>651</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="23"/>
+        <v>650</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="23"/>
+        <v>649</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="23"/>
+        <v>648</v>
+      </c>
+      <c r="N17">
+        <f>Q17+1</f>
+        <v>647</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17">
+        <f t="shared" si="24"/>
+        <v>646</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="24"/>
+        <v>645</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="24"/>
+        <v>644</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="24"/>
+        <v>643</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="24"/>
+        <v>642</v>
+      </c>
+      <c r="V17">
+        <f>Y17+1</f>
+        <v>641</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17">
+        <f t="shared" si="25"/>
+        <v>640</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="25"/>
+        <v>639</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="25"/>
+        <v>638</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="25"/>
+        <v>637</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="25"/>
+        <v>636</v>
+      </c>
+      <c r="AD17">
+        <f>AG17+1</f>
+        <v>635</v>
+      </c>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17">
+        <f t="shared" si="26"/>
+        <v>634</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="26"/>
+        <v>633</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="26"/>
+        <v>632</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="26"/>
+        <v>631</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="26"/>
+        <v>630</v>
+      </c>
+      <c r="AL17">
+        <f>AO17+1</f>
+        <v>629</v>
+      </c>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17">
+        <f t="shared" si="27"/>
+        <v>628</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="27"/>
+        <v>627</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="27"/>
+        <v>626</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="27"/>
+        <v>625</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="27"/>
+        <v>624</v>
+      </c>
+      <c r="AT17">
+        <f>AW17+1</f>
+        <v>623</v>
+      </c>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17">
+        <f t="shared" si="28"/>
+        <v>622</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="28"/>
+        <v>621</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="28"/>
+        <v>620</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="28"/>
+        <v>619</v>
+      </c>
+      <c r="BA17">
+        <f>BB17+1</f>
+        <v>618</v>
+      </c>
+      <c r="BB17">
+        <f>BB18+1</f>
+        <v>617</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17">
+        <f t="shared" si="22"/>
+        <v>500</v>
+      </c>
+      <c r="BJ17" s="1"/>
+    </row>
+    <row r="18" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18">
+        <f t="shared" si="29"/>
+        <v>516</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18">
+        <f t="shared" si="20"/>
+        <v>143</v>
+      </c>
+      <c r="I18" s="4">
+        <f>I16+1</f>
+        <v>581</v>
+      </c>
+      <c r="J18">
+        <f>I18+1</f>
+        <v>582</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:N19" si="30">J18+1</f>
+        <v>583</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="30"/>
+        <v>584</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="30"/>
+        <v>585</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="30"/>
+        <v>586</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4">
+        <f>N18+1</f>
+        <v>587</v>
+      </c>
+      <c r="R18">
+        <f>Q18+1</f>
+        <v>588</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:V19" si="31">R18+1</f>
+        <v>589</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="31"/>
+        <v>590</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="31"/>
+        <v>591</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="31"/>
+        <v>592</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18">
+        <f>V18+1</f>
+        <v>593</v>
+      </c>
+      <c r="Z18">
+        <f>Y18+1</f>
+        <v>594</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ref="AA18:AD19" si="32">Z18+1</f>
+        <v>595</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="32"/>
+        <v>596</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="32"/>
+        <v>597</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="32"/>
+        <v>598</v>
+      </c>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18">
+        <f>AD18+1</f>
+        <v>599</v>
+      </c>
+      <c r="AH18">
+        <f>AG18+1</f>
+        <v>600</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" ref="AI18:AL19" si="33">AH18+1</f>
+        <v>601</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="33"/>
+        <v>602</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="33"/>
+        <v>603</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="33"/>
+        <v>604</v>
+      </c>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18">
+        <f>AL18+1</f>
+        <v>605</v>
+      </c>
+      <c r="AP18">
+        <f>AO18+1</f>
+        <v>606</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" ref="AQ18:AT19" si="34">AP18+1</f>
+        <v>607</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="34"/>
+        <v>608</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="34"/>
+        <v>609</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="34"/>
+        <v>610</v>
+      </c>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18">
+        <f>AT18+1</f>
+        <v>611</v>
+      </c>
+      <c r="AX18">
+        <f>AW18+1</f>
+        <v>612</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" ref="AY18:BB19" si="35">AX18+1</f>
+        <v>613</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="35"/>
+        <v>614</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="35"/>
+        <v>615</v>
+      </c>
+      <c r="BB18">
+        <f t="shared" si="35"/>
+        <v>616</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18">
+        <f t="shared" si="22"/>
+        <v>499</v>
+      </c>
+      <c r="BJ18" s="1"/>
+    </row>
+    <row r="19" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19">
+        <f t="shared" si="29"/>
+        <v>517</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19">
+        <f t="shared" si="20"/>
+        <v>142</v>
+      </c>
+      <c r="I19">
+        <f>G15+1</f>
+        <v>509</v>
+      </c>
+      <c r="J19">
+        <f>I19+1</f>
+        <v>510</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="30"/>
+        <v>511</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="30"/>
+        <v>512</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="30"/>
+        <v>513</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="30"/>
+        <v>514</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19">
+        <f>N19+1</f>
+        <v>515</v>
+      </c>
+      <c r="R19">
+        <f>Q19+1</f>
+        <v>516</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="31"/>
+        <v>517</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="31"/>
+        <v>518</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="31"/>
+        <v>519</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="31"/>
+        <v>520</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19">
+        <f>V19+1</f>
+        <v>521</v>
+      </c>
+      <c r="Z19">
+        <f>Y19+1</f>
+        <v>522</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="32"/>
+        <v>523</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="32"/>
+        <v>524</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="32"/>
+        <v>525</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="32"/>
+        <v>526</v>
+      </c>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19">
+        <f>AD19+1</f>
+        <v>527</v>
+      </c>
+      <c r="AH19">
+        <f>AG19+1</f>
+        <v>528</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="33"/>
+        <v>529</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="33"/>
+        <v>530</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="33"/>
+        <v>531</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="33"/>
+        <v>532</v>
+      </c>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19">
+        <f>AL19+1</f>
+        <v>533</v>
+      </c>
+      <c r="AP19">
+        <f>AO19+1</f>
+        <v>534</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="34"/>
+        <v>535</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="34"/>
+        <v>536</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="34"/>
+        <v>537</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="34"/>
+        <v>538</v>
+      </c>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19">
+        <f>AT19+1</f>
+        <v>539</v>
+      </c>
+      <c r="AX19">
+        <f>AW19+1</f>
+        <v>540</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="35"/>
+        <v>541</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="35"/>
+        <v>542</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" si="35"/>
+        <v>543</v>
+      </c>
+      <c r="BB19">
+        <f t="shared" si="35"/>
+        <v>544</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19">
+        <f>BI20+1</f>
+        <v>498</v>
+      </c>
+      <c r="BJ19" s="1"/>
+    </row>
+    <row r="20" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20">
+        <f t="shared" si="29"/>
+        <v>518</v>
+      </c>
+      <c r="C20">
+        <f>B20+1</f>
+        <v>519</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:G20" si="36">C20+1</f>
+        <v>520</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="36"/>
+        <v>521</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="36"/>
+        <v>522</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="36"/>
+        <v>523</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="20"/>
+        <v>141</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="BD20">
+        <f>BB27+1</f>
+        <v>492</v>
+      </c>
+      <c r="BE20">
+        <f>BD20+1</f>
+        <v>493</v>
+      </c>
+      <c r="BF20">
+        <f t="shared" ref="BF20:BI20" si="37">BE20+1</f>
+        <v>494</v>
+      </c>
+      <c r="BG20">
+        <f t="shared" si="37"/>
+        <v>495</v>
+      </c>
+      <c r="BH20">
+        <f t="shared" si="37"/>
+        <v>496</v>
+      </c>
+      <c r="BI20">
+        <f t="shared" si="37"/>
+        <v>497</v>
+      </c>
+      <c r="BJ20" s="1"/>
+    </row>
+    <row r="21" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21">
+        <f t="shared" si="20"/>
+        <v>140</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21">
+        <f>O14+1</f>
+        <v>173</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P31" si="38">P22+1</f>
+        <v>198</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21">
+        <f>W14+1</f>
+        <v>225</v>
+      </c>
+      <c r="X21">
+        <f t="shared" ref="X21:X31" si="39">X22+1</f>
+        <v>250</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21">
+        <f>AE14+1</f>
+        <v>277</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" ref="AF21:AF31" si="40">AF22+1</f>
+        <v>302</v>
+      </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21">
+        <f>AM14+1</f>
+        <v>329</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" ref="AN21:AN31" si="41">AN22+1</f>
+        <v>354</v>
+      </c>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21">
+        <f>AU14+1</f>
+        <v>381</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" ref="AV21:AV31" si="42">AV22+1</f>
+        <v>406</v>
+      </c>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+    </row>
+    <row r="22" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22">
+        <f t="shared" si="20"/>
+        <v>139</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
+      <c r="O22">
+        <f>O21+1</f>
+        <v>174</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="38"/>
+        <v>197</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="2"/>
+      <c r="W22">
+        <f>W21+1</f>
+        <v>226</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="39"/>
+        <v>249</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22">
+        <f>AE21+1</f>
+        <v>278</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="40"/>
+        <v>301</v>
+      </c>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22">
+        <f>AM21+1</f>
+        <v>330</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="41"/>
+        <v>353</v>
+      </c>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22">
+        <f>AU21+1</f>
+        <v>382</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="42"/>
+        <v>405</v>
+      </c>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+    </row>
+    <row r="23" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23">
+        <f t="shared" si="20"/>
+        <v>138</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23">
+        <f t="shared" ref="O23:O33" si="43">O22+1</f>
+        <v>175</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="38"/>
+        <v>196</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23">
+        <f t="shared" ref="W23:W33" si="44">W22+1</f>
+        <v>227</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="39"/>
+        <v>248</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23">
+        <f t="shared" ref="AE23:AE33" si="45">AE22+1</f>
+        <v>279</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="40"/>
+        <v>300</v>
+      </c>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23">
+        <f t="shared" ref="AM23:AM33" si="46">AM22+1</f>
+        <v>331</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="41"/>
+        <v>352</v>
+      </c>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23">
+        <f t="shared" ref="AU23:AU33" si="47">AU22+1</f>
+        <v>383</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="42"/>
+        <v>404</v>
+      </c>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+    </row>
+    <row r="24" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24">
+        <f t="shared" si="20"/>
+        <v>137</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24">
+        <f t="shared" si="43"/>
+        <v>176</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="38"/>
+        <v>195</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24">
+        <f t="shared" si="44"/>
+        <v>228</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="39"/>
+        <v>247</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24">
+        <f t="shared" si="45"/>
+        <v>280</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="40"/>
+        <v>299</v>
+      </c>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24">
+        <f t="shared" si="46"/>
+        <v>332</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="41"/>
+        <v>351</v>
+      </c>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24">
+        <f t="shared" si="47"/>
+        <v>384</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="42"/>
+        <v>403</v>
+      </c>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+    </row>
+    <row r="25" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25">
+        <f t="shared" si="20"/>
+        <v>136</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2"/>
+      <c r="O25">
+        <f t="shared" si="43"/>
+        <v>177</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="38"/>
+        <v>194</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="2"/>
+      <c r="W25">
+        <f t="shared" si="44"/>
+        <v>229</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="39"/>
+        <v>246</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25">
+        <f t="shared" si="45"/>
+        <v>281</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="40"/>
+        <v>298</v>
+      </c>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25">
+        <f t="shared" si="46"/>
+        <v>333</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="41"/>
+        <v>350</v>
+      </c>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25">
+        <f t="shared" si="47"/>
+        <v>385</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="42"/>
+        <v>402</v>
+      </c>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+    </row>
+    <row r="26" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26">
+        <f t="shared" si="20"/>
+        <v>135</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="1"/>
+      <c r="O26">
+        <f t="shared" si="43"/>
+        <v>178</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="38"/>
+        <v>193</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="1"/>
+      <c r="W26">
+        <f t="shared" si="44"/>
+        <v>230</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="39"/>
+        <v>245</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26">
+        <f t="shared" si="45"/>
+        <v>282</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="40"/>
+        <v>297</v>
+      </c>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26">
+        <f t="shared" si="46"/>
+        <v>334</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="41"/>
+        <v>349</v>
+      </c>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26">
+        <f t="shared" si="47"/>
+        <v>386</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="42"/>
+        <v>401</v>
+      </c>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+    </row>
+    <row r="27" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27">
+        <f t="shared" si="20"/>
+        <v>134</v>
+      </c>
+      <c r="I27">
+        <f>I8+1</f>
+        <v>456</v>
+      </c>
+      <c r="J27">
+        <f>I27+1</f>
+        <v>457</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:N27" si="48">J27+1</f>
+        <v>458</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="48"/>
+        <v>459</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="48"/>
+        <v>460</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="48"/>
+        <v>461</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="43"/>
+        <v>179</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="38"/>
+        <v>192</v>
+      </c>
+      <c r="Q27">
+        <f>N27+1</f>
+        <v>462</v>
+      </c>
+      <c r="R27">
+        <f>Q27+1</f>
+        <v>463</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ref="S27:V27" si="49">R27+1</f>
+        <v>464</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="49"/>
+        <v>465</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="49"/>
+        <v>466</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="49"/>
+        <v>467</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="44"/>
+        <v>231</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="39"/>
+        <v>244</v>
+      </c>
+      <c r="Y27">
+        <f>V27+1</f>
+        <v>468</v>
+      </c>
+      <c r="Z27">
+        <f>Y27+1</f>
+        <v>469</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" ref="AA27:AD27" si="50">Z27+1</f>
+        <v>470</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="50"/>
+        <v>471</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="50"/>
+        <v>472</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="50"/>
+        <v>473</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="45"/>
+        <v>283</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="40"/>
+        <v>296</v>
+      </c>
+      <c r="AG27">
+        <f>AD27+1</f>
+        <v>474</v>
+      </c>
+      <c r="AH27">
+        <f>AG27+1</f>
+        <v>475</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" ref="AI27:AL27" si="51">AH27+1</f>
+        <v>476</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="51"/>
+        <v>477</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="51"/>
+        <v>478</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="51"/>
+        <v>479</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="46"/>
+        <v>335</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="41"/>
+        <v>348</v>
+      </c>
+      <c r="AO27">
+        <f>AL27+1</f>
+        <v>480</v>
+      </c>
+      <c r="AP27">
+        <f>AO27+1</f>
+        <v>481</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" ref="AQ27:AT27" si="52">AP27+1</f>
+        <v>482</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="52"/>
+        <v>483</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" si="52"/>
+        <v>484</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="52"/>
+        <v>485</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="47"/>
+        <v>387</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="42"/>
+        <v>400</v>
+      </c>
+      <c r="AW27">
+        <f>AT27+1</f>
+        <v>486</v>
+      </c>
+      <c r="AX27">
+        <f>AW27+1</f>
+        <v>487</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" ref="AY27:BB27" si="53">AX27+1</f>
+        <v>488</v>
+      </c>
+      <c r="AZ27">
+        <f t="shared" si="53"/>
+        <v>489</v>
+      </c>
+      <c r="BA27">
+        <f t="shared" si="53"/>
+        <v>490</v>
+      </c>
+      <c r="BB27">
+        <f t="shared" si="53"/>
+        <v>491</v>
+      </c>
+      <c r="BC27">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+    </row>
+    <row r="28" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28">
+        <f t="shared" si="20"/>
+        <v>133</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="1"/>
+      <c r="O28">
+        <f t="shared" si="43"/>
+        <v>180</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="38"/>
+        <v>191</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="1"/>
+      <c r="W28">
+        <f t="shared" si="44"/>
+        <v>232</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="39"/>
+        <v>243</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28">
+        <f t="shared" si="45"/>
+        <v>284</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="40"/>
+        <v>295</v>
+      </c>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28">
+        <f t="shared" si="46"/>
+        <v>336</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="41"/>
+        <v>347</v>
+      </c>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28">
+        <f t="shared" si="47"/>
+        <v>388</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="42"/>
+        <v>399</v>
+      </c>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+    </row>
+    <row r="29" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29">
+        <f t="shared" si="20"/>
+        <v>132</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2"/>
+      <c r="O29">
+        <f t="shared" si="43"/>
+        <v>181</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="38"/>
+        <v>190</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="2"/>
+      <c r="W29">
+        <f t="shared" si="44"/>
+        <v>233</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="39"/>
+        <v>242</v>
+      </c>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29">
+        <f t="shared" si="45"/>
+        <v>285</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="40"/>
+        <v>294</v>
+      </c>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29">
+        <f t="shared" si="46"/>
+        <v>337</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="41"/>
+        <v>346</v>
+      </c>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29">
+        <f t="shared" si="47"/>
+        <v>389</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="42"/>
+        <v>398</v>
+      </c>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+    </row>
+    <row r="30" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30">
+        <f t="shared" si="20"/>
+        <v>131</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30">
+        <f t="shared" si="43"/>
+        <v>182</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="38"/>
+        <v>189</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30">
+        <f t="shared" si="44"/>
+        <v>234</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="39"/>
+        <v>241</v>
+      </c>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30">
+        <f t="shared" si="45"/>
+        <v>286</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="40"/>
+        <v>293</v>
+      </c>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30">
+        <f t="shared" si="46"/>
+        <v>338</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="41"/>
+        <v>345</v>
+      </c>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30">
+        <f t="shared" si="47"/>
+        <v>390</v>
+      </c>
+      <c r="AV30" s="5">
+        <f t="shared" si="42"/>
+        <v>397</v>
+      </c>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+    </row>
+    <row r="31" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31">
+        <f t="shared" si="20"/>
+        <v>130</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31">
+        <f t="shared" si="43"/>
+        <v>183</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="38"/>
+        <v>188</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31">
+        <f t="shared" si="44"/>
+        <v>235</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="39"/>
+        <v>240</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31">
+        <f t="shared" si="45"/>
+        <v>287</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="40"/>
+        <v>292</v>
+      </c>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31">
+        <f t="shared" si="46"/>
+        <v>339</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="41"/>
+        <v>344</v>
+      </c>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31">
+        <f t="shared" si="47"/>
+        <v>391</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="42"/>
+        <v>396</v>
+      </c>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+    </row>
+    <row r="32" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32">
+        <f t="shared" si="20"/>
+        <v>129</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="2"/>
+      <c r="O32">
+        <f t="shared" si="43"/>
+        <v>184</v>
+      </c>
+      <c r="P32">
+        <f>P33+1</f>
+        <v>187</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="2"/>
+      <c r="W32">
+        <f t="shared" si="44"/>
+        <v>236</v>
+      </c>
+      <c r="X32">
+        <f>X33+1</f>
+        <v>239</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32">
+        <f t="shared" si="45"/>
+        <v>288</v>
+      </c>
+      <c r="AF32">
+        <f>AF33+1</f>
+        <v>291</v>
+      </c>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32">
+        <f t="shared" si="46"/>
+        <v>340</v>
+      </c>
+      <c r="AN32">
+        <f>AN33+1</f>
+        <v>343</v>
+      </c>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32">
+        <f t="shared" si="47"/>
+        <v>392</v>
+      </c>
+      <c r="AV32">
+        <f>AV33+1</f>
+        <v>395</v>
+      </c>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+    </row>
+    <row r="33" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33">
+        <f>H34+1</f>
+        <v>128</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="1"/>
+      <c r="O33">
+        <f t="shared" si="43"/>
+        <v>185</v>
+      </c>
+      <c r="P33">
+        <f>O33+1</f>
+        <v>186</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="1"/>
+      <c r="W33">
+        <f t="shared" si="44"/>
+        <v>237</v>
+      </c>
+      <c r="X33">
+        <f>W33+1</f>
+        <v>238</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33">
+        <f t="shared" si="45"/>
+        <v>289</v>
+      </c>
+      <c r="AF33">
+        <f>AE33+1</f>
+        <v>290</v>
+      </c>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33">
+        <f t="shared" si="46"/>
+        <v>341</v>
+      </c>
+      <c r="AN33">
+        <f>AM33+1</f>
+        <v>342</v>
+      </c>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33">
+        <f t="shared" si="47"/>
+        <v>393</v>
+      </c>
+      <c r="AV33">
+        <f>AU33+1</f>
+        <v>394</v>
+      </c>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+    </row>
+    <row r="34" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34">
+        <f t="shared" ref="H34:BA34" si="54">I34+1</f>
+        <v>127</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="54"/>
+        <v>126</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="54"/>
+        <v>125</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="54"/>
+        <v>124</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="54"/>
+        <v>123</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="54"/>
+        <v>122</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="54"/>
+        <v>121</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="54"/>
+        <v>120</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="54"/>
+        <v>119</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="54"/>
+        <v>118</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="54"/>
+        <v>117</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="54"/>
+        <v>116</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="54"/>
+        <v>115</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="54"/>
+        <v>114</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="54"/>
+        <v>113</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="54"/>
+        <v>112</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="54"/>
+        <v>111</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="54"/>
+        <v>110</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="54"/>
+        <v>109</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="54"/>
+        <v>108</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="54"/>
+        <v>107</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="54"/>
+        <v>106</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="54"/>
+        <v>105</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="54"/>
+        <v>104</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="54"/>
+        <v>103</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="54"/>
+        <v>102</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="54"/>
+        <v>101</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="54"/>
+        <v>100</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="54"/>
+        <v>99</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="54"/>
+        <v>98</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="54"/>
+        <v>97</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="54"/>
+        <v>96</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="54"/>
+        <v>95</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="54"/>
+        <v>94</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="54"/>
+        <v>93</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="54"/>
+        <v>92</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="54"/>
+        <v>91</v>
+      </c>
+      <c r="AS34">
+        <f t="shared" si="54"/>
+        <v>90</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="54"/>
+        <v>89</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="54"/>
+        <v>88</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="54"/>
+        <v>87</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="54"/>
+        <v>86</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="54"/>
+        <v>85</v>
+      </c>
+      <c r="AY34">
+        <f t="shared" si="54"/>
+        <v>84</v>
+      </c>
+      <c r="AZ34">
+        <f t="shared" si="54"/>
+        <v>83</v>
+      </c>
+      <c r="BA34">
+        <f t="shared" si="54"/>
+        <v>82</v>
+      </c>
+      <c r="BB34">
+        <f>BC34+1</f>
+        <v>81</v>
+      </c>
+      <c r="BC34">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+    </row>
+    <row r="35" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="O15:P20"/>
+    <mergeCell ref="W15:X20"/>
+    <mergeCell ref="AE15:AF20"/>
+    <mergeCell ref="AM15:AN20"/>
+    <mergeCell ref="AU15:AV20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +4835,7 @@
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1">
         <v>9</v>
@@ -567,7 +4859,7 @@
         <v>15</v>
       </c>
       <c r="W1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X1">
         <v>17</v>
@@ -591,7 +4883,7 @@
         <v>23</v>
       </c>
       <c r="AE1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF1">
         <v>25</v>
@@ -615,7 +4907,7 @@
         <v>31</v>
       </c>
       <c r="AM1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN1">
         <v>33</v>
@@ -639,7 +4931,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV1">
         <v>41</v>
@@ -694,7 +4986,7 @@
         <v>161</v>
       </c>
       <c r="P2">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="2"/>
@@ -706,7 +4998,7 @@
         <v>213</v>
       </c>
       <c r="X2">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="2"/>
@@ -718,7 +5010,7 @@
         <v>265</v>
       </c>
       <c r="AF2">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="AG2" s="1"/>
       <c r="AH2" s="2"/>
@@ -730,7 +5022,7 @@
         <v>317</v>
       </c>
       <c r="AN2">
-        <v>368</v>
+        <v>32</v>
       </c>
       <c r="AO2" s="1"/>
       <c r="AP2" s="2"/>
@@ -742,7 +5034,7 @@
         <v>369</v>
       </c>
       <c r="AV2">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="AW2" s="1"/>
       <c r="AX2" s="2"/>
@@ -1231,10 +5523,10 @@
         <v>451</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q8">
         <v>205</v>
@@ -1255,10 +5547,10 @@
         <v>445</v>
       </c>
       <c r="W8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y8">
         <v>257</v>
@@ -1279,10 +5571,10 @@
         <v>439</v>
       </c>
       <c r="AE8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AG8">
         <v>309</v>
@@ -1303,10 +5595,10 @@
         <v>433</v>
       </c>
       <c r="AM8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AN8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AO8">
         <v>361</v>
@@ -1327,10 +5619,10 @@
         <v>427</v>
       </c>
       <c r="AU8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AV8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AW8">
         <v>413</v>
@@ -1351,7 +5643,7 @@
         <v>421</v>
       </c>
       <c r="BC8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
@@ -1819,7 +6111,8 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14">
-        <v>668</v>
+        <f>map!O15</f>
+        <v>653</v>
       </c>
       <c r="P14">
         <v>200</v>
@@ -1831,7 +6124,8 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14">
-        <v>669</v>
+        <f>map!W15</f>
+        <v>654</v>
       </c>
       <c r="X14">
         <v>252</v>
@@ -1843,7 +6137,8 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14">
-        <v>670</v>
+        <f>map!AE15</f>
+        <v>655</v>
       </c>
       <c r="AF14">
         <v>304</v>
@@ -1855,7 +6150,8 @@
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14">
-        <v>671</v>
+        <f>map!AM15</f>
+        <v>656</v>
       </c>
       <c r="AN14">
         <v>356</v>
@@ -1867,7 +6163,8 @@
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14">
-        <v>672</v>
+        <f>map!AU15</f>
+        <v>657</v>
       </c>
       <c r="AV14">
         <v>408</v>
@@ -1892,25 +6189,25 @@
     <row r="15" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C15">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D15">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E15">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="F15">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="G15">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1919,7 +6216,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="1"/>
@@ -1929,7 +6226,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="1"/>
@@ -1939,7 +6236,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" s="1"/>
@@ -1949,7 +6246,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AN15" s="3"/>
       <c r="AO15" s="1"/>
@@ -1959,7 +6256,7 @@
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
       <c r="AU15" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1"/>
@@ -1994,7 +6291,7 @@
     <row r="16" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2008,122 +6305,157 @@
         <v>145</v>
       </c>
       <c r="J16">
-        <v>595</v>
+        <f>map!I16</f>
+        <v>580</v>
       </c>
       <c r="K16">
-        <v>594</v>
+        <f>map!J16</f>
+        <v>579</v>
       </c>
       <c r="L16">
-        <v>593</v>
+        <f>map!K16</f>
+        <v>578</v>
       </c>
       <c r="M16">
-        <v>592</v>
+        <f>map!L16</f>
+        <v>577</v>
       </c>
       <c r="N16">
-        <v>591</v>
+        <f>map!M16</f>
+        <v>576</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16">
-        <v>590</v>
+        <f>map!N16</f>
+        <v>575</v>
       </c>
       <c r="R16">
-        <v>589</v>
+        <f>map!Q16</f>
+        <v>574</v>
       </c>
       <c r="S16">
-        <v>588</v>
+        <f>map!R16</f>
+        <v>573</v>
       </c>
       <c r="T16">
-        <v>587</v>
+        <f>map!S16</f>
+        <v>572</v>
       </c>
       <c r="U16">
-        <v>586</v>
+        <f>map!T16</f>
+        <v>571</v>
       </c>
       <c r="V16">
-        <v>585</v>
+        <f>map!U16</f>
+        <v>570</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16">
-        <v>584</v>
+        <f>map!V16</f>
+        <v>569</v>
       </c>
       <c r="Z16">
-        <v>583</v>
+        <f>map!Y16</f>
+        <v>568</v>
       </c>
       <c r="AA16">
-        <v>582</v>
+        <f>map!Z16</f>
+        <v>567</v>
       </c>
       <c r="AB16">
-        <v>581</v>
+        <f>map!AA16</f>
+        <v>566</v>
       </c>
       <c r="AC16">
-        <v>580</v>
+        <f>map!AB16</f>
+        <v>565</v>
       </c>
       <c r="AD16">
-        <v>579</v>
+        <f>map!AC16</f>
+        <v>564</v>
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16">
-        <v>578</v>
+        <f>map!AD16</f>
+        <v>563</v>
       </c>
       <c r="AH16">
-        <v>577</v>
+        <f>map!AG16</f>
+        <v>562</v>
       </c>
       <c r="AI16">
-        <v>576</v>
+        <f>map!AH16</f>
+        <v>561</v>
       </c>
       <c r="AJ16">
-        <v>575</v>
+        <f>map!AI16</f>
+        <v>560</v>
       </c>
       <c r="AK16">
-        <v>574</v>
+        <f>map!AJ16</f>
+        <v>559</v>
       </c>
       <c r="AL16">
-        <v>573</v>
+        <f>map!AK16</f>
+        <v>558</v>
       </c>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16">
-        <v>572</v>
+        <f>map!AL16</f>
+        <v>557</v>
       </c>
       <c r="AP16">
-        <v>571</v>
+        <f>map!AO16</f>
+        <v>556</v>
       </c>
       <c r="AQ16">
-        <v>570</v>
+        <f>map!AP16</f>
+        <v>555</v>
       </c>
       <c r="AR16">
-        <v>569</v>
+        <f>map!AQ16</f>
+        <v>554</v>
       </c>
       <c r="AS16">
-        <v>568</v>
+        <f>map!AR16</f>
+        <v>553</v>
       </c>
       <c r="AT16">
-        <v>567</v>
+        <f>map!AS16</f>
+        <v>552</v>
       </c>
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="AW16">
-        <v>566</v>
+        <f>map!AT16</f>
+        <v>551</v>
       </c>
       <c r="AX16">
-        <v>565</v>
+        <f>map!AW16</f>
+        <v>550</v>
       </c>
       <c r="AY16">
-        <v>564</v>
+        <f>map!AX16</f>
+        <v>549</v>
       </c>
       <c r="AZ16">
-        <v>563</v>
+        <f>map!AY16</f>
+        <v>548</v>
       </c>
       <c r="BA16">
-        <v>562</v>
+        <f>map!AZ16</f>
+        <v>547</v>
       </c>
       <c r="BB16">
-        <v>561</v>
+        <f>map!BA16</f>
+        <v>546</v>
       </c>
       <c r="BC16" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
@@ -2138,7 +6470,7 @@
     <row r="17" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2152,122 +6484,157 @@
         <v>144</v>
       </c>
       <c r="J17">
-        <v>667</v>
+        <f>map!I17</f>
+        <v>652</v>
       </c>
       <c r="K17">
-        <v>666</v>
+        <f>map!J17</f>
+        <v>651</v>
       </c>
       <c r="L17">
-        <v>665</v>
+        <f>map!K17</f>
+        <v>650</v>
       </c>
       <c r="M17">
-        <v>664</v>
+        <f>map!L17</f>
+        <v>649</v>
       </c>
       <c r="N17">
-        <v>663</v>
+        <f>map!M17</f>
+        <v>648</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17">
-        <v>662</v>
+        <f>map!N17</f>
+        <v>647</v>
       </c>
       <c r="R17">
-        <v>661</v>
+        <f>map!Q17</f>
+        <v>646</v>
       </c>
       <c r="S17">
-        <v>660</v>
+        <f>map!R17</f>
+        <v>645</v>
       </c>
       <c r="T17">
-        <v>659</v>
+        <f>map!S17</f>
+        <v>644</v>
       </c>
       <c r="U17">
-        <v>658</v>
+        <f>map!T17</f>
+        <v>643</v>
       </c>
       <c r="V17">
-        <v>657</v>
+        <f>map!U17</f>
+        <v>642</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17">
-        <v>656</v>
+        <f>map!V17</f>
+        <v>641</v>
       </c>
       <c r="Z17">
-        <v>655</v>
+        <f>map!Y17</f>
+        <v>640</v>
       </c>
       <c r="AA17">
-        <v>654</v>
+        <f>map!Z17</f>
+        <v>639</v>
       </c>
       <c r="AB17">
-        <v>653</v>
+        <f>map!AA17</f>
+        <v>638</v>
       </c>
       <c r="AC17">
-        <v>652</v>
+        <f>map!AB17</f>
+        <v>637</v>
       </c>
       <c r="AD17">
-        <v>651</v>
+        <f>map!AC17</f>
+        <v>636</v>
       </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17">
-        <v>650</v>
+        <f>map!AD17</f>
+        <v>635</v>
       </c>
       <c r="AH17">
-        <v>649</v>
+        <f>map!AG17</f>
+        <v>634</v>
       </c>
       <c r="AI17">
-        <v>648</v>
+        <f>map!AH17</f>
+        <v>633</v>
       </c>
       <c r="AJ17">
-        <v>647</v>
+        <f>map!AI17</f>
+        <v>632</v>
       </c>
       <c r="AK17">
-        <v>646</v>
+        <f>map!AJ17</f>
+        <v>631</v>
       </c>
       <c r="AL17">
-        <v>645</v>
+        <f>map!AK17</f>
+        <v>630</v>
       </c>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17">
-        <v>644</v>
+        <f>map!AL17</f>
+        <v>629</v>
       </c>
       <c r="AP17">
-        <v>643</v>
+        <f>map!AO17</f>
+        <v>628</v>
       </c>
       <c r="AQ17">
-        <v>642</v>
+        <f>map!AP17</f>
+        <v>627</v>
       </c>
       <c r="AR17">
-        <v>641</v>
+        <f>map!AQ17</f>
+        <v>626</v>
       </c>
       <c r="AS17">
-        <v>640</v>
+        <f>map!AR17</f>
+        <v>625</v>
       </c>
       <c r="AT17">
-        <v>639</v>
+        <f>map!AS17</f>
+        <v>624</v>
       </c>
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
       <c r="AW17">
-        <v>638</v>
+        <f>map!AT17</f>
+        <v>623</v>
       </c>
       <c r="AX17">
-        <v>637</v>
+        <f>map!AW17</f>
+        <v>622</v>
       </c>
       <c r="AY17">
-        <v>636</v>
+        <f>map!AX17</f>
+        <v>621</v>
       </c>
       <c r="AZ17">
-        <v>635</v>
+        <f>map!AY17</f>
+        <v>620</v>
       </c>
       <c r="BA17">
-        <v>634</v>
+        <f>map!AZ17</f>
+        <v>619</v>
       </c>
       <c r="BB17">
-        <v>633</v>
+        <f>map!BA17</f>
+        <v>618</v>
       </c>
       <c r="BC17" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
@@ -2282,7 +6649,7 @@
     <row r="18" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2290,122 +6657,157 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I18">
-        <v>597</v>
+        <f>map!J18</f>
+        <v>582</v>
       </c>
       <c r="J18">
-        <v>598</v>
+        <f>map!K18</f>
+        <v>583</v>
       </c>
       <c r="K18">
-        <v>599</v>
+        <f>map!L18</f>
+        <v>584</v>
       </c>
       <c r="L18">
-        <v>600</v>
+        <f>map!M18</f>
+        <v>585</v>
       </c>
       <c r="M18">
-        <v>601</v>
+        <f>map!N18</f>
+        <v>586</v>
       </c>
       <c r="N18">
-        <v>602</v>
+        <f>map!Q18</f>
+        <v>587</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18">
-        <v>603</v>
+        <f>map!R18</f>
+        <v>588</v>
       </c>
       <c r="R18">
-        <v>604</v>
+        <f>map!S18</f>
+        <v>589</v>
       </c>
       <c r="S18">
-        <v>605</v>
+        <f>map!T18</f>
+        <v>590</v>
       </c>
       <c r="T18">
-        <v>606</v>
+        <f>map!U18</f>
+        <v>591</v>
       </c>
       <c r="U18">
-        <v>607</v>
+        <f>map!V18</f>
+        <v>592</v>
       </c>
       <c r="V18">
-        <v>608</v>
+        <f>map!Y18</f>
+        <v>593</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18">
-        <v>609</v>
+        <f>map!Z18</f>
+        <v>594</v>
       </c>
       <c r="Z18">
-        <v>610</v>
+        <f>map!AA18</f>
+        <v>595</v>
       </c>
       <c r="AA18">
-        <v>611</v>
+        <f>map!AB18</f>
+        <v>596</v>
       </c>
       <c r="AB18">
-        <v>612</v>
+        <f>map!AC18</f>
+        <v>597</v>
       </c>
       <c r="AC18">
-        <v>613</v>
+        <f>map!AD18</f>
+        <v>598</v>
       </c>
       <c r="AD18">
-        <v>614</v>
+        <f>map!AG18</f>
+        <v>599</v>
       </c>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18">
-        <v>615</v>
+        <f>map!AH18</f>
+        <v>600</v>
       </c>
       <c r="AH18">
-        <v>616</v>
+        <f>map!AI18</f>
+        <v>601</v>
       </c>
       <c r="AI18">
-        <v>617</v>
+        <f>map!AJ18</f>
+        <v>602</v>
       </c>
       <c r="AJ18">
-        <v>618</v>
+        <f>map!AK18</f>
+        <v>603</v>
       </c>
       <c r="AK18">
-        <v>619</v>
+        <f>map!AL18</f>
+        <v>604</v>
       </c>
       <c r="AL18">
-        <v>620</v>
+        <f>map!AO18</f>
+        <v>605</v>
       </c>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18">
-        <v>621</v>
+        <f>map!AP18</f>
+        <v>606</v>
       </c>
       <c r="AP18">
-        <v>622</v>
+        <f>map!AQ18</f>
+        <v>607</v>
       </c>
       <c r="AQ18">
-        <v>623</v>
+        <f>map!AR18</f>
+        <v>608</v>
       </c>
       <c r="AR18">
-        <v>624</v>
+        <f>map!AS18</f>
+        <v>609</v>
       </c>
       <c r="AS18">
-        <v>625</v>
+        <f>map!AT18</f>
+        <v>610</v>
       </c>
       <c r="AT18">
-        <v>626</v>
+        <f>map!AW18</f>
+        <v>611</v>
       </c>
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="AW18">
-        <v>627</v>
+        <f>map!AX18</f>
+        <v>612</v>
       </c>
       <c r="AX18">
-        <v>628</v>
+        <f>map!AY18</f>
+        <v>613</v>
       </c>
       <c r="AY18">
-        <v>629</v>
+        <f>map!AZ18</f>
+        <v>614</v>
       </c>
       <c r="AZ18">
-        <v>630</v>
+        <f>map!BA18</f>
+        <v>615</v>
       </c>
       <c r="BA18">
-        <v>631</v>
+        <f>map!BB18</f>
+        <v>616</v>
       </c>
       <c r="BB18">
         <v>64</v>
@@ -2426,7 +6828,7 @@
     <row r="19" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2434,122 +6836,157 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I19">
-        <v>525</v>
+        <f>map!J19</f>
+        <v>510</v>
       </c>
       <c r="J19">
-        <v>526</v>
+        <f>map!K19</f>
+        <v>511</v>
       </c>
       <c r="K19">
-        <v>527</v>
+        <f>map!L19</f>
+        <v>512</v>
       </c>
       <c r="L19">
-        <v>528</v>
+        <f>map!M19</f>
+        <v>513</v>
       </c>
       <c r="M19">
-        <v>529</v>
+        <f>map!N19</f>
+        <v>514</v>
       </c>
       <c r="N19">
-        <v>530</v>
+        <f>map!Q19</f>
+        <v>515</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19">
-        <v>531</v>
+        <f>map!R19</f>
+        <v>516</v>
       </c>
       <c r="R19">
-        <v>532</v>
+        <f>map!S19</f>
+        <v>517</v>
       </c>
       <c r="S19">
-        <v>533</v>
+        <f>map!T19</f>
+        <v>518</v>
       </c>
       <c r="T19">
-        <v>534</v>
+        <f>map!U19</f>
+        <v>519</v>
       </c>
       <c r="U19">
-        <v>535</v>
+        <f>map!V19</f>
+        <v>520</v>
       </c>
       <c r="V19">
-        <v>536</v>
+        <f>map!Y19</f>
+        <v>521</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19">
-        <v>537</v>
+        <f>map!Z19</f>
+        <v>522</v>
       </c>
       <c r="Z19">
-        <v>538</v>
+        <f>map!AA19</f>
+        <v>523</v>
       </c>
       <c r="AA19">
-        <v>539</v>
+        <f>map!AB19</f>
+        <v>524</v>
       </c>
       <c r="AB19">
-        <v>540</v>
+        <f>map!AC19</f>
+        <v>525</v>
       </c>
       <c r="AC19">
-        <v>541</v>
+        <f>map!AD19</f>
+        <v>526</v>
       </c>
       <c r="AD19">
-        <v>542</v>
+        <f>map!AG19</f>
+        <v>527</v>
       </c>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19">
-        <v>543</v>
+        <f>map!AH19</f>
+        <v>528</v>
       </c>
       <c r="AH19">
-        <v>544</v>
+        <f>map!AI19</f>
+        <v>529</v>
       </c>
       <c r="AI19">
-        <v>545</v>
+        <f>map!AJ19</f>
+        <v>530</v>
       </c>
       <c r="AJ19">
-        <v>546</v>
+        <f>map!AK19</f>
+        <v>531</v>
       </c>
       <c r="AK19">
-        <v>547</v>
+        <f>map!AL19</f>
+        <v>532</v>
       </c>
       <c r="AL19">
-        <v>548</v>
+        <f>map!AO19</f>
+        <v>533</v>
       </c>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19">
-        <v>549</v>
+        <f>map!AP19</f>
+        <v>534</v>
       </c>
       <c r="AP19">
-        <v>550</v>
+        <f>map!AQ19</f>
+        <v>535</v>
       </c>
       <c r="AQ19">
-        <v>551</v>
+        <f>map!AR19</f>
+        <v>536</v>
       </c>
       <c r="AR19">
-        <v>552</v>
+        <f>map!AS19</f>
+        <v>537</v>
       </c>
       <c r="AS19">
-        <v>553</v>
+        <f>map!AT19</f>
+        <v>538</v>
       </c>
       <c r="AT19">
-        <v>554</v>
+        <f>map!AW19</f>
+        <v>539</v>
       </c>
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="AW19">
-        <v>555</v>
+        <f>map!AX19</f>
+        <v>540</v>
       </c>
       <c r="AX19">
-        <v>556</v>
+        <f>map!AY19</f>
+        <v>541</v>
       </c>
       <c r="AY19">
-        <v>557</v>
+        <f>map!AZ19</f>
+        <v>542</v>
       </c>
       <c r="AZ19">
-        <v>558</v>
+        <f>map!BA19</f>
+        <v>543</v>
       </c>
       <c r="BA19">
-        <v>559</v>
+        <f>map!BB19</f>
+        <v>544</v>
       </c>
       <c r="BB19">
         <v>65</v>
@@ -2570,19 +7007,19 @@
     <row r="20" spans="1:62" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C20">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D20">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="E20">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="F20">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="G20">
         <v>141</v>
@@ -2637,7 +7074,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
       <c r="BC20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD20">
         <v>493</v>
@@ -2680,7 +7117,8 @@
         <v>174</v>
       </c>
       <c r="P21">
-        <v>668</v>
+        <f>map!O15</f>
+        <v>653</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2692,7 +7130,8 @@
         <v>226</v>
       </c>
       <c r="X21">
-        <v>669</v>
+        <f>map!W15</f>
+        <v>654</v>
       </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -2704,7 +7143,8 @@
         <v>278</v>
       </c>
       <c r="AF21">
-        <v>670</v>
+        <f>map!AE15</f>
+        <v>655</v>
       </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -2716,7 +7156,8 @@
         <v>330</v>
       </c>
       <c r="AN21">
-        <v>671</v>
+        <f>map!AM15</f>
+        <v>656</v>
       </c>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
@@ -2728,7 +7169,8 @@
         <v>382</v>
       </c>
       <c r="AV21">
-        <v>672</v>
+        <f>map!AU15</f>
+        <v>657</v>
       </c>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
@@ -3196,7 +7638,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I27">
         <v>457</v>
@@ -3217,10 +7659,10 @@
         <v>179</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P27" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q27">
         <v>463</v>
@@ -3241,10 +7683,10 @@
         <v>231</v>
       </c>
       <c r="W27" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="X27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y27">
         <v>469</v>
@@ -3265,10 +7707,10 @@
         <v>283</v>
       </c>
       <c r="AE27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AF27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG27">
         <v>475</v>
@@ -3289,10 +7731,10 @@
         <v>335</v>
       </c>
       <c r="AM27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AN27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AO27">
         <v>481</v>
@@ -3313,10 +7755,10 @@
         <v>387</v>
       </c>
       <c r="AU27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AV27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AW27">
         <v>487</v>
@@ -3805,7 +8247,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="1"/>
       <c r="O33">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="P33">
         <v>187</v>
@@ -3817,7 +8259,7 @@
       <c r="U33" s="2"/>
       <c r="V33" s="1"/>
       <c r="W33">
-        <v>238</v>
+        <v>112</v>
       </c>
       <c r="X33">
         <v>239</v>
@@ -3829,7 +8271,7 @@
       <c r="AC33" s="2"/>
       <c r="AD33" s="1"/>
       <c r="AE33">
-        <v>290</v>
+        <v>104</v>
       </c>
       <c r="AF33">
         <v>291</v>
@@ -3841,7 +8283,7 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="1"/>
       <c r="AM33">
-        <v>342</v>
+        <v>96</v>
       </c>
       <c r="AN33">
         <v>343</v>
@@ -3853,7 +8295,7 @@
       <c r="AS33" s="2"/>
       <c r="AT33" s="1"/>
       <c r="AU33">
-        <v>394</v>
+        <v>88</v>
       </c>
       <c r="AV33">
         <v>395</v>
@@ -3908,7 +8350,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q34">
         <v>119</v>
@@ -3932,7 +8374,7 @@
         <v>113</v>
       </c>
       <c r="X34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y34">
         <v>111</v>
@@ -3956,7 +8398,7 @@
         <v>105</v>
       </c>
       <c r="AF34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AG34">
         <v>103</v>
@@ -3980,7 +8422,7 @@
         <v>97</v>
       </c>
       <c r="AN34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO34">
         <v>95</v>
@@ -4004,7 +8446,7 @@
         <v>89</v>
       </c>
       <c r="AV34" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="AW34">
         <v>87</v>

--- a/Proyecto03_0.1/backend/destiny.xlsx
+++ b/Proyecto03_0.1/backend/destiny.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="28800" windowHeight="14370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="14370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="4" r:id="rId1"/>
@@ -144,16 +144,16 @@
     <t>88|394</t>
   </si>
   <si>
-    <t>143|509</t>
+    <t>143|524</t>
   </si>
   <si>
-    <t>63|545</t>
+    <t>144|596</t>
   </si>
   <si>
-    <t>64|618</t>
+    <t>64|632</t>
   </si>
   <si>
-    <t>144|581</t>
+    <t>63|560</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,12 +188,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -207,15 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +492,7 @@
   <dimension ref="A1:BJ35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BB16" sqref="BB16"/>
+      <selection activeCell="B1" sqref="B1:BI34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1479,7 @@
         <f t="shared" si="6"/>
         <v>413</v>
       </c>
-      <c r="AW8" s="4">
+      <c r="AW8" s="3">
         <f t="shared" ref="AW8:AZ8" si="18">AX8+1</f>
         <v>425</v>
       </c>
@@ -2158,55 +2151,55 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="3">
+      <c r="O15" s="4">
         <f>I17+1</f>
-        <v>653</v>
-      </c>
-      <c r="P15" s="3"/>
+        <v>668</v>
+      </c>
+      <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="3">
+      <c r="W15" s="4">
         <f>O15+1</f>
-        <v>654</v>
-      </c>
-      <c r="X15" s="3"/>
+        <v>669</v>
+      </c>
+      <c r="X15" s="4"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
-      <c r="AE15" s="3">
+      <c r="AE15" s="4">
         <f>W15+1</f>
-        <v>655</v>
-      </c>
-      <c r="AF15" s="3"/>
+        <v>670</v>
+      </c>
+      <c r="AF15" s="4"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
-      <c r="AM15" s="3">
+      <c r="AM15" s="4">
         <f>AE15+1</f>
-        <v>656</v>
-      </c>
-      <c r="AN15" s="3"/>
+        <v>671</v>
+      </c>
+      <c r="AN15" s="4"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
-      <c r="AU15" s="3">
+      <c r="AU15" s="4">
         <f>AM15+1</f>
-        <v>657</v>
-      </c>
-      <c r="AV15" s="3"/>
+        <v>672</v>
+      </c>
+      <c r="AV15" s="4"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
@@ -2260,157 +2253,157 @@
       </c>
       <c r="I16">
         <f>J16+1</f>
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="J16">
         <f t="shared" ref="J16:M17" si="23">K16+1</f>
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="K16">
         <f t="shared" si="23"/>
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="L16">
         <f t="shared" si="23"/>
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="M16">
         <f t="shared" si="23"/>
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="N16">
         <f>Q16+1</f>
-        <v>575</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+        <v>590</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
       <c r="Q16">
         <f t="shared" ref="Q16:U17" si="24">R16+1</f>
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="R16">
         <f t="shared" si="24"/>
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="S16">
         <f t="shared" si="24"/>
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="T16">
         <f t="shared" si="24"/>
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="U16">
         <f t="shared" si="24"/>
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="V16">
         <f>Y16+1</f>
-        <v>569</v>
-      </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+        <v>584</v>
+      </c>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
       <c r="Y16">
         <f t="shared" ref="Y16:AC17" si="25">Z16+1</f>
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="Z16">
         <f t="shared" si="25"/>
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="AA16">
         <f t="shared" si="25"/>
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="AB16">
         <f t="shared" si="25"/>
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="AC16">
         <f t="shared" si="25"/>
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="AD16">
         <f>AG16+1</f>
-        <v>563</v>
-      </c>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+        <v>578</v>
+      </c>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
       <c r="AG16">
         <f t="shared" ref="AG16:AK17" si="26">AH16+1</f>
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="AH16">
         <f t="shared" si="26"/>
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="AI16">
         <f t="shared" si="26"/>
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="26"/>
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="AK16">
         <f t="shared" si="26"/>
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="AL16">
         <f>AO16+1</f>
-        <v>557</v>
-      </c>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
+        <v>572</v>
+      </c>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
       <c r="AO16">
         <f t="shared" ref="AO16:AS17" si="27">AP16+1</f>
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="AP16">
         <f t="shared" si="27"/>
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="27"/>
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="AR16">
         <f t="shared" si="27"/>
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="AS16">
         <f t="shared" si="27"/>
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="AT16">
         <f>AW16+1</f>
-        <v>551</v>
-      </c>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
+        <v>566</v>
+      </c>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
       <c r="AW16">
         <f t="shared" ref="AW16:AZ17" si="28">AX16+1</f>
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="AX16">
         <f t="shared" si="28"/>
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="AY16">
         <f t="shared" si="28"/>
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="AZ16">
         <f t="shared" si="28"/>
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="BA16">
         <f>BB16+1</f>
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="BB16">
         <f>BB19+1</f>
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="BC16">
         <f t="shared" si="7"/>
@@ -2444,157 +2437,157 @@
       </c>
       <c r="I17">
         <f>J17+1</f>
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="J17">
         <f t="shared" si="23"/>
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="K17">
         <f t="shared" si="23"/>
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="L17">
         <f t="shared" si="23"/>
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="M17">
         <f t="shared" si="23"/>
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="N17">
         <f>Q17+1</f>
-        <v>647</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+        <v>662</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
       <c r="Q17">
         <f t="shared" si="24"/>
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="R17">
         <f t="shared" si="24"/>
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="S17">
         <f t="shared" si="24"/>
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="T17">
         <f t="shared" si="24"/>
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="U17">
         <f t="shared" si="24"/>
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="V17">
         <f>Y17+1</f>
-        <v>641</v>
-      </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+        <v>656</v>
+      </c>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
       <c r="Y17">
         <f t="shared" si="25"/>
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="Z17">
         <f t="shared" si="25"/>
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="AA17">
         <f t="shared" si="25"/>
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="AB17">
         <f t="shared" si="25"/>
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="AC17">
         <f t="shared" si="25"/>
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="AD17">
         <f>AG17+1</f>
-        <v>635</v>
-      </c>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+        <v>650</v>
+      </c>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
       <c r="AG17">
         <f t="shared" si="26"/>
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="AH17">
         <f t="shared" si="26"/>
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="AI17">
         <f t="shared" si="26"/>
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="26"/>
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="AK17">
         <f t="shared" si="26"/>
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="AL17">
         <f>AO17+1</f>
-        <v>629</v>
-      </c>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
+        <v>644</v>
+      </c>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
       <c r="AO17">
         <f t="shared" si="27"/>
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="AP17">
         <f t="shared" si="27"/>
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="AQ17">
         <f t="shared" si="27"/>
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="AR17">
         <f t="shared" si="27"/>
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="AS17">
         <f t="shared" si="27"/>
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="AT17">
         <f>AW17+1</f>
-        <v>623</v>
-      </c>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
+        <v>638</v>
+      </c>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
       <c r="AW17">
         <f t="shared" si="28"/>
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="AX17">
         <f t="shared" si="28"/>
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="AY17">
         <f t="shared" si="28"/>
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="AZ17">
         <f t="shared" si="28"/>
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="BA17">
         <f>BB17+1</f>
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="BB17">
         <f>BB18+1</f>
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="BC17">
         <f t="shared" si="7"/>
@@ -2626,159 +2619,159 @@
         <f t="shared" si="20"/>
         <v>143</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <f>I16+1</f>
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="J18">
         <f>I18+1</f>
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="K18">
         <f t="shared" ref="K18:N19" si="30">J18+1</f>
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="L18">
         <f t="shared" si="30"/>
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="M18">
         <f t="shared" si="30"/>
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="N18">
         <f t="shared" si="30"/>
-        <v>586</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="4">
+        <v>601</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="3">
         <f>N18+1</f>
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="R18">
         <f>Q18+1</f>
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:V19" si="31">R18+1</f>
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="T18">
         <f t="shared" si="31"/>
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="U18">
         <f t="shared" si="31"/>
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="V18">
         <f t="shared" si="31"/>
-        <v>592</v>
-      </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+        <v>607</v>
+      </c>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
       <c r="Y18">
         <f>V18+1</f>
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="Z18">
         <f>Y18+1</f>
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="AA18">
         <f t="shared" ref="AA18:AD19" si="32">Z18+1</f>
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="AB18">
         <f t="shared" si="32"/>
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="AC18">
         <f t="shared" si="32"/>
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="AD18">
         <f t="shared" si="32"/>
-        <v>598</v>
-      </c>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
+        <v>613</v>
+      </c>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
       <c r="AG18">
         <f>AD18+1</f>
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="AH18">
         <f>AG18+1</f>
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="AI18">
         <f t="shared" ref="AI18:AL19" si="33">AH18+1</f>
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="33"/>
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="AK18">
         <f t="shared" si="33"/>
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="AL18">
         <f t="shared" si="33"/>
-        <v>604</v>
-      </c>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
+        <v>619</v>
+      </c>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
       <c r="AO18">
         <f>AL18+1</f>
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="AP18">
         <f>AO18+1</f>
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="AQ18">
         <f t="shared" ref="AQ18:AT19" si="34">AP18+1</f>
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="AR18">
         <f t="shared" si="34"/>
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="AS18">
         <f t="shared" si="34"/>
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="AT18">
         <f t="shared" si="34"/>
-        <v>610</v>
-      </c>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
+        <v>625</v>
+      </c>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
       <c r="AW18">
         <f>AT18+1</f>
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="AX18">
         <f>AW18+1</f>
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="AY18">
         <f t="shared" ref="AY18:BB19" si="35">AX18+1</f>
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="AZ18">
         <f t="shared" si="35"/>
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="BA18">
         <f t="shared" si="35"/>
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="BB18">
         <f t="shared" si="35"/>
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="BC18">
         <f t="shared" si="7"/>
@@ -2811,158 +2804,158 @@
         <v>142</v>
       </c>
       <c r="I19">
-        <f>G15+1</f>
-        <v>509</v>
+        <f>G20+1</f>
+        <v>524</v>
       </c>
       <c r="J19">
         <f>I19+1</f>
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="K19">
         <f t="shared" si="30"/>
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="L19">
         <f t="shared" si="30"/>
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="M19">
         <f t="shared" si="30"/>
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="N19">
         <f t="shared" si="30"/>
-        <v>514</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+        <v>529</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
       <c r="Q19">
         <f>N19+1</f>
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="R19">
         <f>Q19+1</f>
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="S19">
         <f t="shared" si="31"/>
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="T19">
         <f t="shared" si="31"/>
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="U19">
         <f t="shared" si="31"/>
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="V19">
         <f t="shared" si="31"/>
-        <v>520</v>
-      </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+        <v>535</v>
+      </c>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
       <c r="Y19">
         <f>V19+1</f>
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="Z19">
         <f>Y19+1</f>
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="AA19">
         <f t="shared" si="32"/>
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AB19">
         <f t="shared" si="32"/>
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AC19">
         <f t="shared" si="32"/>
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AD19">
         <f t="shared" si="32"/>
-        <v>526</v>
-      </c>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
+        <v>541</v>
+      </c>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
       <c r="AG19">
         <f>AD19+1</f>
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="AH19">
         <f>AG19+1</f>
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="AI19">
         <f t="shared" si="33"/>
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="33"/>
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="AK19">
         <f t="shared" si="33"/>
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="AL19">
         <f t="shared" si="33"/>
-        <v>532</v>
-      </c>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
+        <v>547</v>
+      </c>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
       <c r="AO19">
         <f>AL19+1</f>
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AP19">
         <f>AO19+1</f>
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="AQ19">
         <f t="shared" si="34"/>
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AR19">
         <f t="shared" si="34"/>
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="AS19">
         <f t="shared" si="34"/>
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AT19">
         <f t="shared" si="34"/>
-        <v>538</v>
-      </c>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
+        <v>553</v>
+      </c>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
       <c r="AW19">
         <f>AT19+1</f>
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="AX19">
         <f>AW19+1</f>
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="AY19">
         <f t="shared" si="35"/>
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="AZ19">
         <f t="shared" si="35"/>
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="BA19">
         <f t="shared" si="35"/>
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="BB19">
         <f t="shared" si="35"/>
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="BC19">
         <f t="shared" si="7"/>
@@ -3015,40 +3008,40 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
@@ -4171,7 +4164,7 @@
         <f t="shared" si="47"/>
         <v>390</v>
       </c>
-      <c r="AV30" s="5">
+      <c r="AV30" s="3">
         <f t="shared" si="42"/>
         <v>397</v>
       </c>
@@ -4782,7 +4775,7 @@
   <dimension ref="A1:BJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6112,7 +6105,7 @@
       <c r="N14" s="1"/>
       <c r="O14">
         <f>map!O15</f>
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="P14">
         <v>200</v>
@@ -6125,7 +6118,7 @@
       <c r="V14" s="1"/>
       <c r="W14">
         <f>map!W15</f>
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="X14">
         <v>252</v>
@@ -6138,7 +6131,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14">
         <f>map!AE15</f>
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="AF14">
         <v>304</v>
@@ -6151,7 +6144,7 @@
       <c r="AL14" s="1"/>
       <c r="AM14">
         <f>map!AM15</f>
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="AN14">
         <v>356</v>
@@ -6164,7 +6157,7 @@
       <c r="AT14" s="1"/>
       <c r="AU14">
         <f>map!AU15</f>
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="AV14">
         <v>408</v>
@@ -6215,50 +6208,50 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="3"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="3" t="s">
+      <c r="W15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X15" s="3"/>
+      <c r="X15" s="4"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
-      <c r="AE15" s="3" t="s">
+      <c r="AE15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AF15" s="3"/>
+      <c r="AF15" s="4"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
-      <c r="AM15" s="3" t="s">
+      <c r="AM15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AN15" s="3"/>
+      <c r="AN15" s="4"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
-      <c r="AU15" s="3" t="s">
+      <c r="AU15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AV15" s="3"/>
+      <c r="AV15" s="4"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
@@ -6306,156 +6299,156 @@
       </c>
       <c r="J16">
         <f>map!I16</f>
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="K16">
         <f>map!J16</f>
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="L16">
         <f>map!K16</f>
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="M16">
         <f>map!L16</f>
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="N16">
         <f>map!M16</f>
-        <v>576</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+        <v>591</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
       <c r="Q16">
         <f>map!N16</f>
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="R16">
         <f>map!Q16</f>
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="S16">
         <f>map!R16</f>
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="T16">
         <f>map!S16</f>
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="U16">
         <f>map!T16</f>
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="V16">
         <f>map!U16</f>
-        <v>570</v>
-      </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+        <v>585</v>
+      </c>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
       <c r="Y16">
         <f>map!V16</f>
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="Z16">
         <f>map!Y16</f>
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="AA16">
         <f>map!Z16</f>
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="AB16">
         <f>map!AA16</f>
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="AC16">
         <f>map!AB16</f>
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="AD16">
         <f>map!AC16</f>
-        <v>564</v>
-      </c>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+        <v>579</v>
+      </c>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
       <c r="AG16">
         <f>map!AD16</f>
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="AH16">
         <f>map!AG16</f>
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="AI16">
         <f>map!AH16</f>
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="AJ16">
         <f>map!AI16</f>
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="AK16">
         <f>map!AJ16</f>
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="AL16">
         <f>map!AK16</f>
-        <v>558</v>
-      </c>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
+        <v>573</v>
+      </c>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
       <c r="AO16">
         <f>map!AL16</f>
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="AP16">
         <f>map!AO16</f>
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="AQ16">
         <f>map!AP16</f>
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="AR16">
         <f>map!AQ16</f>
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="AS16">
         <f>map!AR16</f>
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="AT16">
         <f>map!AS16</f>
-        <v>552</v>
-      </c>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
+        <v>567</v>
+      </c>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
       <c r="AW16">
         <f>map!AT16</f>
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="AX16">
         <f>map!AW16</f>
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="AY16">
         <f>map!AX16</f>
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="AZ16">
         <f>map!AY16</f>
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="BA16">
         <f>map!AZ16</f>
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="BB16">
         <f>map!BA16</f>
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="BC16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
@@ -6485,153 +6478,153 @@
       </c>
       <c r="J17">
         <f>map!I17</f>
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="K17">
         <f>map!J17</f>
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="L17">
         <f>map!K17</f>
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="M17">
         <f>map!L17</f>
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="N17">
         <f>map!M17</f>
-        <v>648</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+        <v>663</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
       <c r="Q17">
         <f>map!N17</f>
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="R17">
         <f>map!Q17</f>
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="S17">
         <f>map!R17</f>
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="T17">
         <f>map!S17</f>
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="U17">
         <f>map!T17</f>
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="V17">
         <f>map!U17</f>
-        <v>642</v>
-      </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+        <v>657</v>
+      </c>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
       <c r="Y17">
         <f>map!V17</f>
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="Z17">
         <f>map!Y17</f>
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="AA17">
         <f>map!Z17</f>
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="AB17">
         <f>map!AA17</f>
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="AC17">
         <f>map!AB17</f>
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="AD17">
         <f>map!AC17</f>
-        <v>636</v>
-      </c>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+        <v>651</v>
+      </c>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
       <c r="AG17">
         <f>map!AD17</f>
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="AH17">
         <f>map!AG17</f>
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="AI17">
         <f>map!AH17</f>
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="AJ17">
         <f>map!AI17</f>
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="AK17">
         <f>map!AJ17</f>
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="AL17">
         <f>map!AK17</f>
-        <v>630</v>
-      </c>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
+        <v>645</v>
+      </c>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
       <c r="AO17">
         <f>map!AL17</f>
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="AP17">
         <f>map!AO17</f>
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="AQ17">
         <f>map!AP17</f>
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="AR17">
         <f>map!AQ17</f>
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="AS17">
         <f>map!AR17</f>
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="AT17">
         <f>map!AS17</f>
-        <v>624</v>
-      </c>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
+        <v>639</v>
+      </c>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
       <c r="AW17">
         <f>map!AT17</f>
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="AX17">
         <f>map!AW17</f>
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="AY17">
         <f>map!AX17</f>
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="AZ17">
         <f>map!AY17</f>
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="BA17">
         <f>map!AZ17</f>
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="BB17">
         <f>map!BA17</f>
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="BC17" t="s">
         <v>41</v>
@@ -6657,157 +6650,157 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I18">
         <f>map!J18</f>
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="J18">
         <f>map!K18</f>
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="K18">
         <f>map!L18</f>
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="L18">
         <f>map!M18</f>
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="M18">
         <f>map!N18</f>
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="N18">
         <f>map!Q18</f>
-        <v>587</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+        <v>602</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
       <c r="Q18">
         <f>map!R18</f>
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="R18">
         <f>map!S18</f>
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="S18">
         <f>map!T18</f>
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="T18">
         <f>map!U18</f>
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="U18">
         <f>map!V18</f>
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="V18">
         <f>map!Y18</f>
-        <v>593</v>
-      </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+        <v>608</v>
+      </c>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
       <c r="Y18">
         <f>map!Z18</f>
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="Z18">
         <f>map!AA18</f>
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="AA18">
         <f>map!AB18</f>
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="AB18">
         <f>map!AC18</f>
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="AC18">
         <f>map!AD18</f>
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="AD18">
         <f>map!AG18</f>
-        <v>599</v>
-      </c>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
+        <v>614</v>
+      </c>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
       <c r="AG18">
         <f>map!AH18</f>
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="AH18">
         <f>map!AI18</f>
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="AI18">
         <f>map!AJ18</f>
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="AJ18">
         <f>map!AK18</f>
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="AK18">
         <f>map!AL18</f>
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="AL18">
         <f>map!AO18</f>
-        <v>605</v>
-      </c>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
+        <v>620</v>
+      </c>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
       <c r="AO18">
         <f>map!AP18</f>
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="AP18">
         <f>map!AQ18</f>
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="AQ18">
         <f>map!AR18</f>
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="AR18">
         <f>map!AS18</f>
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="AS18">
         <f>map!AT18</f>
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="AT18">
         <f>map!AW18</f>
-        <v>611</v>
-      </c>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
+        <v>626</v>
+      </c>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
       <c r="AW18">
         <f>map!AX18</f>
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="AX18">
         <f>map!AY18</f>
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="AY18">
         <f>map!AZ18</f>
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="AZ18">
         <f>map!BA18</f>
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="BA18">
         <f>map!BB18</f>
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="BB18">
         <v>64</v>
@@ -6840,153 +6833,153 @@
       </c>
       <c r="I19">
         <f>map!J19</f>
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="J19">
         <f>map!K19</f>
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="K19">
         <f>map!L19</f>
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="L19">
         <f>map!M19</f>
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="M19">
         <f>map!N19</f>
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="N19">
         <f>map!Q19</f>
-        <v>515</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+        <v>530</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
       <c r="Q19">
         <f>map!R19</f>
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="R19">
         <f>map!S19</f>
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="S19">
         <f>map!T19</f>
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="T19">
         <f>map!U19</f>
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="U19">
         <f>map!V19</f>
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="V19">
         <f>map!Y19</f>
-        <v>521</v>
-      </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+        <v>536</v>
+      </c>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
       <c r="Y19">
         <f>map!Z19</f>
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="Z19">
         <f>map!AA19</f>
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AA19">
         <f>map!AB19</f>
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AB19">
         <f>map!AC19</f>
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AC19">
         <f>map!AD19</f>
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="AD19">
         <f>map!AG19</f>
-        <v>527</v>
-      </c>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
+        <v>542</v>
+      </c>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
       <c r="AG19">
         <f>map!AH19</f>
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="AH19">
         <f>map!AI19</f>
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="AI19">
         <f>map!AJ19</f>
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="AJ19">
         <f>map!AK19</f>
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="AK19">
         <f>map!AL19</f>
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="AL19">
         <f>map!AO19</f>
-        <v>533</v>
-      </c>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
+        <v>548</v>
+      </c>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
       <c r="AO19">
         <f>map!AP19</f>
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="AP19">
         <f>map!AQ19</f>
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AQ19">
         <f>map!AR19</f>
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="AR19">
         <f>map!AS19</f>
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="AS19">
         <f>map!AT19</f>
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="AT19">
         <f>map!AW19</f>
-        <v>539</v>
-      </c>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
+        <v>554</v>
+      </c>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
       <c r="AW19">
         <f>map!AX19</f>
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="AX19">
         <f>map!AY19</f>
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="AY19">
         <f>map!AZ19</f>
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="AZ19">
         <f>map!BA19</f>
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="BA19">
         <f>map!BB19</f>
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="BB19">
         <v>65</v>
@@ -7033,40 +7026,40 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
@@ -7118,7 +7111,7 @@
       </c>
       <c r="P21">
         <f>map!O15</f>
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -7131,7 +7124,7 @@
       </c>
       <c r="X21">
         <f>map!W15</f>
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -7144,7 +7137,7 @@
       </c>
       <c r="AF21">
         <f>map!AE15</f>
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -7157,7 +7150,7 @@
       </c>
       <c r="AN21">
         <f>map!AM15</f>
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
@@ -7170,7 +7163,7 @@
       </c>
       <c r="AV21">
         <f>map!AU15</f>
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
